--- a/natmiOut/OldD2/LR-pairs_lrc2p/F2-F2r.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/F2-F2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.90538485635317</v>
+        <v>1.9141865</v>
       </c>
       <c r="H2">
-        <v>1.90538485635317</v>
+        <v>3.828373</v>
       </c>
       <c r="I2">
-        <v>0.6023667687402692</v>
+        <v>0.5304889167995069</v>
       </c>
       <c r="J2">
-        <v>0.6023667687402692</v>
+        <v>0.4469022060086147</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.2727973655578</v>
+        <v>15.4436705</v>
       </c>
       <c r="N2">
-        <v>15.2727973655578</v>
+        <v>30.887341</v>
       </c>
       <c r="O2">
-        <v>0.1945441839925925</v>
+        <v>0.1861093649875006</v>
       </c>
       <c r="P2">
-        <v>0.1945441839925925</v>
+        <v>0.1466263162891969</v>
       </c>
       <c r="Q2">
-        <v>29.10055681448442</v>
+        <v>29.56206558154825</v>
       </c>
       <c r="R2">
-        <v>29.10055681448442</v>
+        <v>118.248262326193</v>
       </c>
       <c r="S2">
-        <v>0.1171869514888303</v>
+        <v>0.09872895543846329</v>
       </c>
       <c r="T2">
-        <v>0.1171869514888303</v>
+        <v>0.06552762420855897</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.90538485635317</v>
+        <v>1.9141865</v>
       </c>
       <c r="H3">
-        <v>1.90538485635317</v>
+        <v>3.828373</v>
       </c>
       <c r="I3">
-        <v>0.6023667687402692</v>
+        <v>0.5304889167995069</v>
       </c>
       <c r="J3">
-        <v>0.6023667687402692</v>
+        <v>0.4469022060086147</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>33.1193941119515</v>
+        <v>35.33817966666667</v>
       </c>
       <c r="N3">
-        <v>33.1193941119515</v>
+        <v>106.014539</v>
       </c>
       <c r="O3">
-        <v>0.4218733050416109</v>
+        <v>0.4258551215255169</v>
       </c>
       <c r="P3">
-        <v>0.4218733050416109</v>
+        <v>0.5032651184401855</v>
       </c>
       <c r="Q3">
-        <v>63.10519199250473</v>
+        <v>67.64386645250784</v>
       </c>
       <c r="R3">
-        <v>63.10519199250473</v>
+        <v>405.863198715047</v>
       </c>
       <c r="S3">
-        <v>0.2541224595756931</v>
+        <v>0.2259114221315938</v>
       </c>
       <c r="T3">
-        <v>0.2541224595756931</v>
+        <v>0.2249102916381057</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.90538485635317</v>
+        <v>1.9141865</v>
       </c>
       <c r="H4">
-        <v>1.90538485635317</v>
+        <v>3.828373</v>
       </c>
       <c r="I4">
-        <v>0.6023667687402692</v>
+        <v>0.5304889167995069</v>
       </c>
       <c r="J4">
-        <v>0.6023667687402692</v>
+        <v>0.4469022060086147</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>8.75129363529213</v>
+        <v>0.066009</v>
       </c>
       <c r="N4">
-        <v>8.75129363529213</v>
+        <v>0.198027</v>
       </c>
       <c r="O4">
-        <v>0.111473572156262</v>
+        <v>0.0007954645933076549</v>
       </c>
       <c r="P4">
-        <v>0.111473572156262</v>
+        <v>0.0009400605100905511</v>
       </c>
       <c r="Q4">
-        <v>16.67458236618551</v>
+        <v>0.1263535366785</v>
       </c>
       <c r="R4">
-        <v>16.67458236618551</v>
+        <v>0.758121220071</v>
       </c>
       <c r="S4">
-        <v>0.0671479754597028</v>
+        <v>0.0004219851504561382</v>
       </c>
       <c r="T4">
-        <v>0.0671479754597028</v>
+        <v>0.0004201151157410509</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.90538485635317</v>
+        <v>1.9141865</v>
       </c>
       <c r="H5">
-        <v>1.90538485635317</v>
+        <v>3.828373</v>
       </c>
       <c r="I5">
-        <v>0.6023667687402692</v>
+        <v>0.5304889167995069</v>
       </c>
       <c r="J5">
-        <v>0.6023667687402692</v>
+        <v>0.4469022060086147</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>21.3620607848818</v>
+        <v>0.1247346666666667</v>
       </c>
       <c r="N5">
-        <v>21.3620607848818</v>
+        <v>0.374204</v>
       </c>
       <c r="O5">
-        <v>0.2721089388095347</v>
+        <v>0.001503158825180898</v>
       </c>
       <c r="P5">
-        <v>0.2721089388095347</v>
+        <v>0.001776396163744967</v>
       </c>
       <c r="Q5">
-        <v>40.70294712000969</v>
+        <v>0.2387654150153333</v>
       </c>
       <c r="R5">
-        <v>40.70294712000969</v>
+        <v>1.432592490092</v>
       </c>
       <c r="S5">
-        <v>0.163909382216043</v>
+        <v>0.0007974090969478341</v>
       </c>
       <c r="T5">
-        <v>0.163909382216043</v>
+        <v>0.000793875364322866</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.41258961714425</v>
+        <v>1.9141865</v>
       </c>
       <c r="H6">
-        <v>0.41258961714425</v>
+        <v>3.828373</v>
       </c>
       <c r="I6">
-        <v>0.1304357351567513</v>
+        <v>0.5304889167995069</v>
       </c>
       <c r="J6">
-        <v>0.1304357351567513</v>
+        <v>0.4469022060086147</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.2727973655578</v>
+        <v>9.161148333333335</v>
       </c>
       <c r="N6">
-        <v>15.2727973655578</v>
+        <v>27.483445</v>
       </c>
       <c r="O6">
-        <v>0.1945441839925925</v>
+        <v>0.1103996293415459</v>
       </c>
       <c r="P6">
-        <v>0.1945441839925925</v>
+        <v>0.1304675691988749</v>
       </c>
       <c r="Q6">
-        <v>6.301397617777203</v>
+        <v>17.53614646416417</v>
       </c>
       <c r="R6">
-        <v>6.301397617777203</v>
+        <v>105.216878784985</v>
       </c>
       <c r="S6">
-        <v>0.02537551365954408</v>
+        <v>0.05856577978446374</v>
       </c>
       <c r="T6">
-        <v>0.02537551365954408</v>
+        <v>0.05830624448755881</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.41258961714425</v>
+        <v>1.9141865</v>
       </c>
       <c r="H7">
-        <v>0.41258961714425</v>
+        <v>3.828373</v>
       </c>
       <c r="I7">
-        <v>0.1304357351567513</v>
+        <v>0.5304889167995069</v>
       </c>
       <c r="J7">
-        <v>0.1304357351567513</v>
+        <v>0.4469022060086147</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.1193941119515</v>
+        <v>22.8479525</v>
       </c>
       <c r="N7">
-        <v>33.1193941119515</v>
+        <v>45.695905</v>
       </c>
       <c r="O7">
-        <v>0.4218733050416109</v>
+        <v>0.2753372607269481</v>
       </c>
       <c r="P7">
-        <v>0.4218733050416109</v>
+        <v>0.2169245393979072</v>
       </c>
       <c r="Q7">
-        <v>13.6647181366996</v>
+        <v>43.73524222814125</v>
       </c>
       <c r="R7">
-        <v>13.6647181366996</v>
+        <v>174.940968912565</v>
       </c>
       <c r="S7">
-        <v>0.0550273546861109</v>
+        <v>0.1460633651975821</v>
       </c>
       <c r="T7">
-        <v>0.0550273546861109</v>
+        <v>0.09694405519432736</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.41258961714425</v>
+        <v>0.524746</v>
       </c>
       <c r="H8">
-        <v>0.41258961714425</v>
+        <v>1.574238</v>
       </c>
       <c r="I8">
-        <v>0.1304357351567513</v>
+        <v>0.145425713291194</v>
       </c>
       <c r="J8">
-        <v>0.1304357351567513</v>
+        <v>0.1837674738022104</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.75129363529213</v>
+        <v>15.4436705</v>
       </c>
       <c r="N8">
-        <v>8.75129363529213</v>
+        <v>30.887341</v>
       </c>
       <c r="O8">
-        <v>0.111473572156262</v>
+        <v>0.1861093649875006</v>
       </c>
       <c r="P8">
-        <v>0.111473572156262</v>
+        <v>0.1466263162891969</v>
       </c>
       <c r="Q8">
-        <v>3.610692890502092</v>
+        <v>8.104004320193001</v>
       </c>
       <c r="R8">
-        <v>3.610692890502092</v>
+        <v>48.624025921158</v>
       </c>
       <c r="S8">
-        <v>0.0145401373347512</v>
+        <v>0.02706508715347844</v>
       </c>
       <c r="T8">
-        <v>0.0145401373347512</v>
+        <v>0.02694514773738961</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,557 +962,1797 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.41258961714425</v>
+        <v>0.524746</v>
       </c>
       <c r="H9">
-        <v>0.41258961714425</v>
+        <v>1.574238</v>
       </c>
       <c r="I9">
-        <v>0.1304357351567513</v>
+        <v>0.145425713291194</v>
       </c>
       <c r="J9">
-        <v>0.1304357351567513</v>
+        <v>0.1837674738022104</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>21.3620607848818</v>
+        <v>35.33817966666667</v>
       </c>
       <c r="N9">
-        <v>21.3620607848818</v>
+        <v>106.014539</v>
       </c>
       <c r="O9">
-        <v>0.2721089388095347</v>
+        <v>0.4258551215255169</v>
       </c>
       <c r="P9">
-        <v>0.2721089388095347</v>
+        <v>0.5032651184401855</v>
       </c>
       <c r="Q9">
-        <v>8.813764480646578</v>
+        <v>18.54356842736467</v>
       </c>
       <c r="R9">
-        <v>8.813764480646578</v>
+        <v>166.892115846282</v>
       </c>
       <c r="S9">
-        <v>0.0354927294763451</v>
+        <v>0.06193028480655639</v>
       </c>
       <c r="T9">
-        <v>0.0354927294763451</v>
+        <v>0.09248375946852311</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.501255996428986</v>
+        <v>0.524746</v>
       </c>
       <c r="H10">
-        <v>0.501255996428986</v>
+        <v>1.574238</v>
       </c>
       <c r="I10">
-        <v>0.1584666498601826</v>
+        <v>0.145425713291194</v>
       </c>
       <c r="J10">
-        <v>0.1584666498601826</v>
+        <v>0.1837674738022104</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>15.2727973655578</v>
+        <v>0.066009</v>
       </c>
       <c r="N10">
-        <v>15.2727973655578</v>
+        <v>0.198027</v>
       </c>
       <c r="O10">
-        <v>0.1945441839925925</v>
+        <v>0.0007954645933076549</v>
       </c>
       <c r="P10">
-        <v>0.1945441839925925</v>
+        <v>0.0009400605100905511</v>
       </c>
       <c r="Q10">
-        <v>7.655581261730667</v>
+        <v>0.034637958714</v>
       </c>
       <c r="R10">
-        <v>7.655581261730667</v>
+        <v>0.311741628426</v>
       </c>
       <c r="S10">
-        <v>0.0308287650870891</v>
+        <v>0.0001156810058796553</v>
       </c>
       <c r="T10">
-        <v>0.0308287650870891</v>
+        <v>0.0001727525451605579</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.501255996428986</v>
+        <v>0.524746</v>
       </c>
       <c r="H11">
-        <v>0.501255996428986</v>
+        <v>1.574238</v>
       </c>
       <c r="I11">
-        <v>0.1584666498601826</v>
+        <v>0.145425713291194</v>
       </c>
       <c r="J11">
-        <v>0.1584666498601826</v>
+        <v>0.1837674738022104</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>33.1193941119515</v>
+        <v>0.1247346666666667</v>
       </c>
       <c r="N11">
-        <v>33.1193941119515</v>
+        <v>0.374204</v>
       </c>
       <c r="O11">
-        <v>0.4218733050416109</v>
+        <v>0.001503158825180898</v>
       </c>
       <c r="P11">
-        <v>0.4218733050416109</v>
+        <v>0.001776396163744967</v>
       </c>
       <c r="Q11">
-        <v>16.60129489671054</v>
+        <v>0.06545401739466666</v>
       </c>
       <c r="R11">
-        <v>16.60129489671054</v>
+        <v>0.589086156552</v>
       </c>
       <c r="S11">
-        <v>0.06685284931538697</v>
+        <v>0.0002185979443418853</v>
       </c>
       <c r="T11">
-        <v>0.06685284931538697</v>
+        <v>0.0003264438354833502</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.501255996428986</v>
+        <v>0.524746</v>
       </c>
       <c r="H12">
-        <v>0.501255996428986</v>
+        <v>1.574238</v>
       </c>
       <c r="I12">
-        <v>0.1584666498601826</v>
+        <v>0.145425713291194</v>
       </c>
       <c r="J12">
-        <v>0.1584666498601826</v>
+        <v>0.1837674738022104</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.75129363529213</v>
+        <v>9.161148333333335</v>
       </c>
       <c r="N12">
-        <v>8.75129363529213</v>
+        <v>27.483445</v>
       </c>
       <c r="O12">
-        <v>0.111473572156262</v>
+        <v>0.1103996293415459</v>
       </c>
       <c r="P12">
-        <v>0.111473572156262</v>
+        <v>0.1304675691988749</v>
       </c>
       <c r="Q12">
-        <v>4.386638411201</v>
+        <v>4.807275943323335</v>
       </c>
       <c r="R12">
-        <v>4.386638411201</v>
+        <v>43.26548348991</v>
       </c>
       <c r="S12">
-        <v>0.01766484352755018</v>
+        <v>0.01605494484407774</v>
       </c>
       <c r="T12">
-        <v>0.01766484352755018</v>
+        <v>0.02397569560479233</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.501255996428986</v>
+        <v>0.524746</v>
       </c>
       <c r="H13">
-        <v>0.501255996428986</v>
+        <v>1.574238</v>
       </c>
       <c r="I13">
-        <v>0.1584666498601826</v>
+        <v>0.145425713291194</v>
       </c>
       <c r="J13">
-        <v>0.1584666498601826</v>
+        <v>0.1837674738022104</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.3620607848818</v>
+        <v>22.8479525</v>
       </c>
       <c r="N13">
-        <v>21.3620607848818</v>
+        <v>45.695905</v>
       </c>
       <c r="O13">
-        <v>0.2721089388095347</v>
+        <v>0.2753372607269481</v>
       </c>
       <c r="P13">
-        <v>0.2721089388095347</v>
+        <v>0.2169245393979072</v>
       </c>
       <c r="Q13">
-        <v>10.70786106450249</v>
+        <v>11.989371682565</v>
       </c>
       <c r="R13">
-        <v>10.70786106450249</v>
+        <v>71.93623009539</v>
       </c>
       <c r="S13">
-        <v>0.04312019193015639</v>
+        <v>0.04004111753685988</v>
       </c>
       <c r="T13">
-        <v>0.04312019193015639</v>
+        <v>0.03986367461086146</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.343933494675933</v>
+        <v>0.1234456666666667</v>
       </c>
       <c r="H14">
-        <v>0.343933494675933</v>
+        <v>0.370337</v>
       </c>
       <c r="I14">
-        <v>0.108730846242797</v>
+        <v>0.03421116907552791</v>
       </c>
       <c r="J14">
-        <v>0.108730846242797</v>
+        <v>0.04323100760208379</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.2727973655578</v>
+        <v>15.4436705</v>
       </c>
       <c r="N14">
-        <v>15.2727973655578</v>
+        <v>30.887341</v>
       </c>
       <c r="O14">
-        <v>0.1945441839925925</v>
+        <v>0.1861093649875006</v>
       </c>
       <c r="P14">
-        <v>0.1945441839925925</v>
+        <v>0.1466263162891969</v>
       </c>
       <c r="Q14">
-        <v>5.252826571413677</v>
+        <v>1.906454200652833</v>
       </c>
       <c r="R14">
-        <v>5.252826571413677</v>
+        <v>11.438725203917</v>
       </c>
       <c r="S14">
-        <v>0.02115295375712898</v>
+        <v>0.006367018952126518</v>
       </c>
       <c r="T14">
-        <v>0.02115295375712898</v>
+        <v>0.006338803394163814</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.343933494675933</v>
+        <v>0.1234456666666667</v>
       </c>
       <c r="H15">
-        <v>0.343933494675933</v>
+        <v>0.370337</v>
       </c>
       <c r="I15">
-        <v>0.108730846242797</v>
+        <v>0.03421116907552791</v>
       </c>
       <c r="J15">
-        <v>0.108730846242797</v>
+        <v>0.04323100760208379</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>33.1193941119515</v>
+        <v>35.33817966666667</v>
       </c>
       <c r="N15">
-        <v>33.1193941119515</v>
+        <v>106.014539</v>
       </c>
       <c r="O15">
-        <v>0.4218733050416109</v>
+        <v>0.4258551215255169</v>
       </c>
       <c r="P15">
-        <v>0.4218733050416109</v>
+        <v>0.5032651184401855</v>
       </c>
       <c r="Q15">
-        <v>11.390868958473</v>
+        <v>4.362345147738112</v>
       </c>
       <c r="R15">
-        <v>11.390868958473</v>
+        <v>39.26110632964301</v>
       </c>
       <c r="S15">
-        <v>0.04587064146441998</v>
+        <v>0.01456900156418894</v>
       </c>
       <c r="T15">
-        <v>0.04587064146441998</v>
+        <v>0.02175665816115126</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.343933494675933</v>
+        <v>0.1234456666666667</v>
       </c>
       <c r="H16">
-        <v>0.343933494675933</v>
+        <v>0.370337</v>
       </c>
       <c r="I16">
-        <v>0.108730846242797</v>
+        <v>0.03421116907552791</v>
       </c>
       <c r="J16">
-        <v>0.108730846242797</v>
+        <v>0.04323100760208379</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>8.75129363529213</v>
+        <v>0.066009</v>
       </c>
       <c r="N16">
-        <v>8.75129363529213</v>
+        <v>0.198027</v>
       </c>
       <c r="O16">
-        <v>0.111473572156262</v>
+        <v>0.0007954645933076549</v>
       </c>
       <c r="P16">
-        <v>0.111473572156262</v>
+        <v>0.0009400605100905511</v>
       </c>
       <c r="Q16">
-        <v>3.009863002921272</v>
+        <v>0.008148525011</v>
       </c>
       <c r="R16">
-        <v>3.009863002921272</v>
+        <v>0.07333672509900001</v>
       </c>
       <c r="S16">
-        <v>0.01212061583425786</v>
+        <v>2.721377369524423E-05</v>
       </c>
       <c r="T16">
-        <v>0.01212061583425786</v>
+        <v>4.063976305814339E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.343933494675933</v>
+        <v>0.1234456666666667</v>
       </c>
       <c r="H17">
-        <v>0.343933494675933</v>
+        <v>0.370337</v>
       </c>
       <c r="I17">
-        <v>0.108730846242797</v>
+        <v>0.03421116907552791</v>
       </c>
       <c r="J17">
-        <v>0.108730846242797</v>
+        <v>0.04323100760208379</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>21.3620607848818</v>
+        <v>0.1247346666666667</v>
       </c>
       <c r="N17">
-        <v>21.3620607848818</v>
+        <v>0.374204</v>
       </c>
       <c r="O17">
-        <v>0.2721089388095347</v>
+        <v>0.001503158825180898</v>
       </c>
       <c r="P17">
-        <v>0.2721089388095347</v>
+        <v>0.001776396163744967</v>
       </c>
       <c r="Q17">
-        <v>7.347128219224101</v>
+        <v>0.01539795408311111</v>
       </c>
       <c r="R17">
-        <v>7.347128219224101</v>
+        <v>0.138581586748</v>
       </c>
       <c r="S17">
-        <v>0.02958663518699016</v>
+        <v>5.14248207156356E-05</v>
       </c>
       <c r="T17">
-        <v>0.02958663518699016</v>
+        <v>7.679539605917115E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.1234456666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.370337</v>
+      </c>
+      <c r="I18">
+        <v>0.03421116907552791</v>
+      </c>
+      <c r="J18">
+        <v>0.04323100760208379</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>9.161148333333335</v>
+      </c>
+      <c r="N18">
+        <v>27.483445</v>
+      </c>
+      <c r="O18">
+        <v>0.1103996293415459</v>
+      </c>
+      <c r="P18">
+        <v>0.1304675691988749</v>
+      </c>
+      <c r="Q18">
+        <v>1.130904063440556</v>
+      </c>
+      <c r="R18">
+        <v>10.178136570965</v>
+      </c>
+      <c r="S18">
+        <v>0.003776900385279238</v>
+      </c>
+      <c r="T18">
+        <v>0.005640244475861957</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.1234456666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.370337</v>
+      </c>
+      <c r="I19">
+        <v>0.03421116907552791</v>
+      </c>
+      <c r="J19">
+        <v>0.04323100760208379</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>22.8479525</v>
+      </c>
+      <c r="N19">
+        <v>45.695905</v>
+      </c>
+      <c r="O19">
+        <v>0.2753372607269481</v>
+      </c>
+      <c r="P19">
+        <v>0.2169245393979072</v>
+      </c>
+      <c r="Q19">
+        <v>2.820480728330833</v>
+      </c>
+      <c r="R19">
+        <v>16.922884369985</v>
+      </c>
+      <c r="S19">
+        <v>0.009419609579522332</v>
+      </c>
+      <c r="T19">
+        <v>0.00937786641178945</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.1536683333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.461005</v>
+      </c>
+      <c r="I20">
+        <v>0.04258694108248363</v>
+      </c>
+      <c r="J20">
+        <v>0.05381506751849974</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>15.4436705</v>
+      </c>
+      <c r="N20">
+        <v>30.887341</v>
+      </c>
+      <c r="O20">
+        <v>0.1861093649875006</v>
+      </c>
+      <c r="P20">
+        <v>0.1466263162891969</v>
+      </c>
+      <c r="Q20">
+        <v>2.373203106284167</v>
+      </c>
+      <c r="R20">
+        <v>14.239218637705</v>
+      </c>
+      <c r="S20">
+        <v>0.007925828561621131</v>
+      </c>
+      <c r="T20">
+        <v>0.007890705111092029</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.1536683333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.461005</v>
+      </c>
+      <c r="I21">
+        <v>0.04258694108248363</v>
+      </c>
+      <c r="J21">
+        <v>0.05381506751849974</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>35.33817966666667</v>
+      </c>
+      <c r="N21">
+        <v>106.014539</v>
+      </c>
+      <c r="O21">
+        <v>0.4258551215255169</v>
+      </c>
+      <c r="P21">
+        <v>0.5032651184401855</v>
+      </c>
+      <c r="Q21">
+        <v>5.430359172410555</v>
+      </c>
+      <c r="R21">
+        <v>48.873232551695</v>
+      </c>
+      <c r="S21">
+        <v>0.0181358669700811</v>
+      </c>
+      <c r="T21">
+        <v>0.02708324632856435</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.1536683333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.461005</v>
+      </c>
+      <c r="I22">
+        <v>0.04258694108248363</v>
+      </c>
+      <c r="J22">
+        <v>0.05381506751849974</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.066009</v>
+      </c>
+      <c r="N22">
+        <v>0.198027</v>
+      </c>
+      <c r="O22">
+        <v>0.0007954645933076549</v>
+      </c>
+      <c r="P22">
+        <v>0.0009400605100905511</v>
+      </c>
+      <c r="Q22">
+        <v>0.010143493015</v>
+      </c>
+      <c r="R22">
+        <v>0.091291437135</v>
+      </c>
+      <c r="S22">
+        <v>3.38764037683949E-05</v>
+      </c>
+      <c r="T22">
+        <v>5.058941982199832E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.1536683333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.461005</v>
+      </c>
+      <c r="I23">
+        <v>0.04258694108248363</v>
+      </c>
+      <c r="J23">
+        <v>0.05381506751849974</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.1247346666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.374204</v>
+      </c>
+      <c r="O23">
+        <v>0.001503158825180898</v>
+      </c>
+      <c r="P23">
+        <v>0.001776396163744967</v>
+      </c>
+      <c r="Q23">
+        <v>0.01916776833555555</v>
+      </c>
+      <c r="R23">
+        <v>0.17250991502</v>
+      </c>
+      <c r="S23">
+        <v>6.401493632559422E-05</v>
+      </c>
+      <c r="T23">
+        <v>9.559687949153931E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.1536683333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.461005</v>
+      </c>
+      <c r="I24">
+        <v>0.04258694108248363</v>
+      </c>
+      <c r="J24">
+        <v>0.05381506751849974</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>9.161148333333335</v>
+      </c>
+      <c r="N24">
+        <v>27.483445</v>
+      </c>
+      <c r="O24">
+        <v>0.1103996293415459</v>
+      </c>
+      <c r="P24">
+        <v>0.1304675691988749</v>
+      </c>
+      <c r="Q24">
+        <v>1.407778395802778</v>
+      </c>
+      <c r="R24">
+        <v>12.670005562225</v>
+      </c>
+      <c r="S24">
+        <v>0.004701582510296446</v>
+      </c>
+      <c r="T24">
+        <v>0.007021121045411993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.1536683333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.461005</v>
+      </c>
+      <c r="I25">
+        <v>0.04258694108248363</v>
+      </c>
+      <c r="J25">
+        <v>0.05381506751849974</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>22.8479525</v>
+      </c>
+      <c r="N25">
+        <v>45.695905</v>
+      </c>
+      <c r="O25">
+        <v>0.2753372607269481</v>
+      </c>
+      <c r="P25">
+        <v>0.2169245393979072</v>
+      </c>
+      <c r="Q25">
+        <v>3.511006780754166</v>
+      </c>
+      <c r="R25">
+        <v>21.066040684525</v>
+      </c>
+      <c r="S25">
+        <v>0.01172577170039097</v>
+      </c>
+      <c r="T25">
+        <v>0.01167380873411783</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.5479189999999999</v>
+      </c>
+      <c r="H26">
+        <v>1.643757</v>
+      </c>
+      <c r="I26">
+        <v>0.1518477728287547</v>
+      </c>
+      <c r="J26">
+        <v>0.1918827213132321</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>15.4436705</v>
+      </c>
+      <c r="N26">
+        <v>30.887341</v>
+      </c>
+      <c r="O26">
+        <v>0.1861093649875006</v>
+      </c>
+      <c r="P26">
+        <v>0.1466263162891969</v>
+      </c>
+      <c r="Q26">
+        <v>8.461880496689499</v>
+      </c>
+      <c r="R26">
+        <v>50.77128298013699</v>
+      </c>
+      <c r="S26">
+        <v>0.02826029257592578</v>
+      </c>
+      <c r="T26">
+        <v>0.0281350565857058</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.5479189999999999</v>
+      </c>
+      <c r="H27">
+        <v>1.643757</v>
+      </c>
+      <c r="I27">
+        <v>0.1518477728287547</v>
+      </c>
+      <c r="J27">
+        <v>0.1918827213132321</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>35.33817966666667</v>
+      </c>
+      <c r="N27">
+        <v>106.014539</v>
+      </c>
+      <c r="O27">
+        <v>0.4258551215255169</v>
+      </c>
+      <c r="P27">
+        <v>0.5032651184401855</v>
+      </c>
+      <c r="Q27">
+        <v>19.36246006478033</v>
+      </c>
+      <c r="R27">
+        <v>174.262140583023</v>
+      </c>
+      <c r="S27">
+        <v>0.0646651517513684</v>
+      </c>
+      <c r="T27">
+        <v>0.09656788046832888</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.5479189999999999</v>
+      </c>
+      <c r="H28">
+        <v>1.643757</v>
+      </c>
+      <c r="I28">
+        <v>0.1518477728287547</v>
+      </c>
+      <c r="J28">
+        <v>0.1918827213132321</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.066009</v>
+      </c>
+      <c r="N28">
+        <v>0.198027</v>
+      </c>
+      <c r="O28">
+        <v>0.0007954645933076549</v>
+      </c>
+      <c r="P28">
+        <v>0.0009400605100905511</v>
+      </c>
+      <c r="Q28">
+        <v>0.036167585271</v>
+      </c>
+      <c r="R28">
+        <v>0.325508267439</v>
+      </c>
+      <c r="S28">
+        <v>0.0001207895268578985</v>
+      </c>
+      <c r="T28">
+        <v>0.0001803813688752801</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.5479189999999999</v>
+      </c>
+      <c r="H29">
+        <v>1.643757</v>
+      </c>
+      <c r="I29">
+        <v>0.1518477728287547</v>
+      </c>
+      <c r="J29">
+        <v>0.1918827213132321</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.1247346666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.374204</v>
+      </c>
+      <c r="O29">
+        <v>0.001503158825180898</v>
+      </c>
+      <c r="P29">
+        <v>0.001776396163744967</v>
+      </c>
+      <c r="Q29">
+        <v>0.06834449382533332</v>
+      </c>
+      <c r="R29">
+        <v>0.6151004444279999</v>
+      </c>
+      <c r="S29">
+        <v>0.0002282513198116068</v>
+      </c>
+      <c r="T29">
+        <v>0.0003408597300297701</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.5479189999999999</v>
+      </c>
+      <c r="H30">
+        <v>1.643757</v>
+      </c>
+      <c r="I30">
+        <v>0.1518477728287547</v>
+      </c>
+      <c r="J30">
+        <v>0.1918827213132321</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>9.161148333333335</v>
+      </c>
+      <c r="N30">
+        <v>27.483445</v>
+      </c>
+      <c r="O30">
+        <v>0.1103996293415459</v>
+      </c>
+      <c r="P30">
+        <v>0.1304675691988749</v>
+      </c>
+      <c r="Q30">
+        <v>5.019567233651667</v>
+      </c>
+      <c r="R30">
+        <v>45.176105102865</v>
+      </c>
+      <c r="S30">
+        <v>0.01676393783663378</v>
+      </c>
+      <c r="T30">
+        <v>0.02503447222100255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.5479189999999999</v>
+      </c>
+      <c r="H31">
+        <v>1.643757</v>
+      </c>
+      <c r="I31">
+        <v>0.1518477728287547</v>
+      </c>
+      <c r="J31">
+        <v>0.1918827213132321</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>22.8479525</v>
+      </c>
+      <c r="N31">
+        <v>45.695905</v>
+      </c>
+      <c r="O31">
+        <v>0.2753372607269481</v>
+      </c>
+      <c r="P31">
+        <v>0.2169245393979072</v>
+      </c>
+      <c r="Q31">
+        <v>12.5188272858475</v>
+      </c>
+      <c r="R31">
+        <v>75.11296371508499</v>
+      </c>
+      <c r="S31">
+        <v>0.0418093498181572</v>
+      </c>
+      <c r="T31">
+        <v>0.04162407093928986</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.3443785</v>
+      </c>
+      <c r="H32">
+        <v>0.688757</v>
+      </c>
+      <c r="I32">
+        <v>0.09543948692253289</v>
+      </c>
+      <c r="J32">
+        <v>0.08040152375535911</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>15.4436705</v>
+      </c>
+      <c r="N32">
+        <v>30.887341</v>
+      </c>
+      <c r="O32">
+        <v>0.1861093649875006</v>
+      </c>
+      <c r="P32">
+        <v>0.1466263162891969</v>
+      </c>
+      <c r="Q32">
+        <v>5.31846808128425</v>
+      </c>
+      <c r="R32">
+        <v>21.273872325137</v>
+      </c>
+      <c r="S32">
+        <v>0.01776218230588546</v>
+      </c>
+      <c r="T32">
+        <v>0.01178897925228666</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.3443785</v>
+      </c>
+      <c r="H33">
+        <v>0.688757</v>
+      </c>
+      <c r="I33">
+        <v>0.09543948692253289</v>
+      </c>
+      <c r="J33">
+        <v>0.08040152375535911</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>35.33817966666667</v>
+      </c>
+      <c r="N33">
+        <v>106.014539</v>
+      </c>
+      <c r="O33">
+        <v>0.4258551215255169</v>
+      </c>
+      <c r="P33">
+        <v>0.5032651184401855</v>
+      </c>
+      <c r="Q33">
+        <v>12.16970930633717</v>
+      </c>
+      <c r="R33">
+        <v>73.01825583802299</v>
+      </c>
+      <c r="S33">
+        <v>0.04064339430172822</v>
+      </c>
+      <c r="T33">
+        <v>0.04046328237551219</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.3443785</v>
+      </c>
+      <c r="H34">
+        <v>0.688757</v>
+      </c>
+      <c r="I34">
+        <v>0.09543948692253289</v>
+      </c>
+      <c r="J34">
+        <v>0.08040152375535911</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.066009</v>
+      </c>
+      <c r="N34">
+        <v>0.198027</v>
+      </c>
+      <c r="O34">
+        <v>0.0007954645933076549</v>
+      </c>
+      <c r="P34">
+        <v>0.0009400605100905511</v>
+      </c>
+      <c r="Q34">
+        <v>0.0227320804065</v>
+      </c>
+      <c r="R34">
+        <v>0.136392482439</v>
+      </c>
+      <c r="S34">
+        <v>7.591873265032387E-05</v>
+      </c>
+      <c r="T34">
+        <v>7.558229743352045E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.3443785</v>
+      </c>
+      <c r="H35">
+        <v>0.688757</v>
+      </c>
+      <c r="I35">
+        <v>0.09543948692253289</v>
+      </c>
+      <c r="J35">
+        <v>0.08040152375535911</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.1247346666666667</v>
+      </c>
+      <c r="N35">
+        <v>0.374204</v>
+      </c>
+      <c r="O35">
+        <v>0.001503158825180898</v>
+      </c>
+      <c r="P35">
+        <v>0.001776396163744967</v>
+      </c>
+      <c r="Q35">
+        <v>0.04295593740466666</v>
+      </c>
+      <c r="R35">
+        <v>0.257735624428</v>
+      </c>
+      <c r="S35">
+        <v>0.0001434607070383422</v>
+      </c>
+      <c r="T35">
+        <v>0.0001428249583582697</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.3443785</v>
+      </c>
+      <c r="H36">
+        <v>0.688757</v>
+      </c>
+      <c r="I36">
+        <v>0.09543948692253289</v>
+      </c>
+      <c r="J36">
+        <v>0.08040152375535911</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>9.161148333333335</v>
+      </c>
+      <c r="N36">
+        <v>27.483445</v>
+      </c>
+      <c r="O36">
+        <v>0.1103996293415459</v>
+      </c>
+      <c r="P36">
+        <v>0.1304675691988749</v>
+      </c>
+      <c r="Q36">
+        <v>3.154902521310833</v>
+      </c>
+      <c r="R36">
+        <v>18.929415127865</v>
+      </c>
+      <c r="S36">
+        <v>0.01053648398079495</v>
+      </c>
+      <c r="T36">
+        <v>0.0104897913642473</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.3443785</v>
+      </c>
+      <c r="H37">
+        <v>0.688757</v>
+      </c>
+      <c r="I37">
+        <v>0.09543948692253289</v>
+      </c>
+      <c r="J37">
+        <v>0.08040152375535911</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>22.8479525</v>
+      </c>
+      <c r="N37">
+        <v>45.695905</v>
+      </c>
+      <c r="O37">
+        <v>0.2753372607269481</v>
+      </c>
+      <c r="P37">
+        <v>0.2169245393979072</v>
+      </c>
+      <c r="Q37">
+        <v>7.868343610021249</v>
+      </c>
+      <c r="R37">
+        <v>31.473374440085</v>
+      </c>
+      <c r="S37">
+        <v>0.02627804689443559</v>
+      </c>
+      <c r="T37">
+        <v>0.01744106350752116</v>
       </c>
     </row>
   </sheetData>
